--- a/data/api_auto/uu_api/uu_api.xlsx
+++ b/data/api_auto/uu_api/uu_api.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16160"/>
+    <workbookView windowWidth="29120" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3168,16 +3168,16 @@
   <dimension ref="A1:O222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H160" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D211" sqref="D211"/>
+      <selection pane="bottomRight" activeCell="A211" sqref="$A211:$XFD211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="25.4615384615385" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.0769230769231" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.2307692307692" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.1538461538462" style="2" customWidth="1"/>
     <col min="4" max="4" width="42.0769230769231" style="2" customWidth="1"/>
